--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131949.405489866</v>
+        <v>2129697.325778658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9755679.082220629</v>
+        <v>9755679.082220627</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738202</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>330.523828309499</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>126.9028353996538</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.259894528902</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>59.32996291532885</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
-        <v>128.0896751668753</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.05806357631722</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.594095449509723</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>78.6882778203391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>223.1546446143035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428926</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176199</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.2445652598092</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.169188758595</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.206671818183</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1150.940973211433</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1150.940973211433</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>739.9550684218252</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758595</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.2257657051542</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2895827772473</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>509.2895827772473</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>509.2895827772473</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>362.399635279337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>194.6967986540559</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.007895746702</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X4" t="n">
-        <v>899.0183448486844</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.2257657051542</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.5548741173881</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>804.6186911894812</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.203338947628</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136267</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,28 +4869,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,10 +4905,10 @@
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>776.4664207350971</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3497813227614</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4366877403683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5467402424579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770273</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491205</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648815</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750797</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072671</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,43 +6233,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803939</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803939</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400789</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121721</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121721</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>177.721318527052</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487575</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854714</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648827</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611866</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138488</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703187</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167374</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793926</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348533</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7132,13 +7132,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072725</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,19 +7491,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>70.46607471595162</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>147.0213775687026</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392193459</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5874149221280618</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319414</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319403</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319404</v>
       </c>
-      <c r="D4" t="n">
-        <v>92793.84288319397</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="I4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205745</v>
+        <v>-934217.246020574</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.4997070182</v>
+        <v>394527.4997070176</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.499707018</v>
+        <v>394527.4997070181</v>
       </c>
       <c r="E6" t="n">
-        <v>145039.4850321496</v>
+        <v>145004.7471067137</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140685</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395044</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="J6" t="n">
-        <v>252920.7444422269</v>
+        <v>252886.0065167913</v>
       </c>
       <c r="K6" t="n">
-        <v>470451.9468395042</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="L6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="M6" t="n">
-        <v>385396.9189039925</v>
+        <v>385362.180978557</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395049</v>
+        <v>470417.2089140689</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395046</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395045</v>
+        <v>470417.2089140685</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,17 +26960,17 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468627</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>80.39789734395447</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>17.85217951466703</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319281</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062660006</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>310.4011377631402</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
-        <v>20.52579785133702</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.598573539425463e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283056</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860818</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,31 +33263,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33500,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394658</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640634</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36759,10 +36759,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010518</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
